--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
   <si>
     <t>No.</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Draw flows for some processes</t>
-  </si>
-  <si>
-    <t>Waiting</t>
   </si>
   <si>
     <t>Read: how to make a project plan and making plan for 1st week</t>
@@ -348,30 +345,12 @@
     <t>Meeting client at personal lab in Thu Duc</t>
   </si>
   <si>
-    <t>Read prototype to classify users which is synchronize with source code</t>
-  </si>
-  <si>
     <t>Write document for presentation on Thursday</t>
   </si>
   <si>
     <t>CODE001</t>
   </si>
   <si>
-    <t>Coding task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code phân quyền nhân viên theo prototype </t>
-  </si>
-  <si>
-    <t>Tú</t>
-  </si>
-  <si>
-    <t>Duy, Tú</t>
-  </si>
-  <si>
-    <t>Review task 35</t>
-  </si>
-  <si>
     <t>1PM at Ho Con Rua</t>
   </si>
   <si>
@@ -394,6 +373,24 @@
   </si>
   <si>
     <t>Hoang, Tu, Phuong</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Form 14.01, add "Loai" column to the table</t>
+  </si>
+  <si>
+    <t>Form 14.03, add "Ky hieu mau" column to the table</t>
+  </si>
+  <si>
+    <t>Form 15.01, add "Nguoi giao", "Nguoi nhan", "Dien ten" columns to the table</t>
+  </si>
+  <si>
+    <t>Tinh tien, Bang bao gia</t>
+  </si>
+  <si>
+    <t>Form 19.01, 19.02</t>
   </si>
 </sst>
 </file>
@@ -653,39 +650,84 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,52 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1064,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,116 +1081,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="30"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="42" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="31"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1206,7 +1203,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>23</v>
@@ -1217,32 +1214,32 @@
       <c r="G5" s="21">
         <v>6</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>1</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="23">
         <v>42686</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="23">
         <v>42686</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>42686</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="23">
         <v>42686</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>42686</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>42</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1250,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -1298,16 +1295,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -1346,13 +1343,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -1394,13 +1391,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -1436,68 +1433,68 @@
         <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+      <c r="A11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="32"/>
+      <c r="A12" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1510,7 +1507,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -1911,32 +1908,32 @@
       <c r="G21" s="21">
         <v>5</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>1</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <v>42699</v>
       </c>
-      <c r="K21" s="24">
-        <v>42704</v>
-      </c>
-      <c r="L21" s="24">
+      <c r="K21" s="23">
+        <v>42704</v>
+      </c>
+      <c r="L21" s="23">
         <v>42699</v>
       </c>
-      <c r="M21" s="24">
-        <v>42704</v>
-      </c>
-      <c r="N21" s="24">
+      <c r="M21" s="23">
+        <v>42704</v>
+      </c>
+      <c r="N21" s="23">
         <v>42704</v>
       </c>
       <c r="O21" s="21" t="s">
         <v>42</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,7 +1982,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2035,10 +2032,10 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="44"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>17</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -2059,58 +2056,58 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="28">
-        <v>42704</v>
-      </c>
-      <c r="K24" s="28">
-        <v>42704</v>
-      </c>
-      <c r="L24" s="28">
-        <v>42704</v>
-      </c>
-      <c r="M24" s="28">
+        <v>71</v>
+      </c>
+      <c r="J24" s="27">
+        <v>42704</v>
+      </c>
+      <c r="K24" s="27">
+        <v>42704</v>
+      </c>
+      <c r="L24" s="27">
+        <v>42704</v>
+      </c>
+      <c r="M24" s="27">
         <v>42704</v>
       </c>
       <c r="N24" s="20"/>
       <c r="O24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" s="44"/>
+        <v>70</v>
+      </c>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="A25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>17</v>
@@ -2158,7 +2155,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>17</v>
@@ -2200,13 +2197,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>17</v>
@@ -2248,13 +2245,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>17</v>
@@ -2296,13 +2293,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>17</v>
@@ -2344,16 +2341,16 @@
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="D31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F31" s="13">
         <v>6</v>
@@ -2392,16 +2389,16 @@
         <v>24</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="10">
         <v>8</v>
@@ -2440,13 +2437,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>18</v>
@@ -2461,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" s="4">
         <v>42714</v>
@@ -2488,16 +2485,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="F34" s="13">
         <v>4</v>
@@ -2532,40 +2529,40 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="A35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="13">
         <v>2</v>
@@ -2598,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2606,13 +2603,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>16</v>
@@ -2654,13 +2651,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>19</v>
@@ -2689,8 +2686,12 @@
       <c r="M38" s="14">
         <v>42718</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="13"/>
+      <c r="N38" s="14">
+        <v>42718</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2698,13 +2699,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="D39" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>16</v>
@@ -2749,10 +2750,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>15</v>
@@ -2794,13 +2795,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="D41" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E41" s="18" t="s">
         <v>16</v>
@@ -2808,10 +2809,14 @@
       <c r="F41" s="18">
         <v>3</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="18">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
       <c r="I41" s="18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J41" s="14">
         <v>42718</v>
@@ -2825,12 +2830,16 @@
       <c r="M41" s="14">
         <v>42718</v>
       </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="18"/>
+      <c r="N41" s="14">
+        <v>42718</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="24">
         <v>33</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2840,7 +2849,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>23</v>
@@ -2851,52 +2860,52 @@
       <c r="G42" s="21">
         <v>5</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <v>1</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="26">
+        <v>24</v>
+      </c>
+      <c r="J42" s="25">
         <v>42719</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="25">
         <v>42719</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="25">
         <v>42719</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="25">
         <v>42719</v>
       </c>
-      <c r="N42" s="26">
+      <c r="N42" s="25">
         <v>42719</v>
       </c>
       <c r="O42" s="21" t="s">
         <v>42</v>
       </c>
       <c r="P42" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>34</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="13" t="s">
+      <c r="B43" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>101</v>
+      <c r="C43" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="F43" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="2"/>
@@ -2904,16 +2913,16 @@
         <v>30</v>
       </c>
       <c r="J43" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="K43" s="14">
-        <v>42718</v>
+        <v>42724</v>
       </c>
       <c r="L43" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="M43" s="14">
-        <v>42718</v>
+        <v>42724</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="13"/>
@@ -2923,114 +2932,158 @@
       <c r="A44" s="3">
         <v>35</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>17</v>
+      <c r="B44" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="F44" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="22" t="s">
+      <c r="I44" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J44" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="K44" s="14">
-        <v>42719</v>
+        <v>42724</v>
       </c>
       <c r="L44" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="M44" s="14">
-        <v>42719</v>
+        <v>42724</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>36</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>100</v>
+      <c r="B45" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="F45" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="22" t="s">
+      <c r="I45" s="28" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="K45" s="14">
-        <v>42719</v>
+        <v>42724</v>
       </c>
       <c r="L45" s="14">
-        <v>42718</v>
+        <v>42720</v>
       </c>
       <c r="M45" s="14">
-        <v>42719</v>
+        <v>42724</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="18"/>
       <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="18">
+        <v>8</v>
+      </c>
       <c r="G46" s="18"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="I46" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="14">
+        <v>42720</v>
+      </c>
+      <c r="K46" s="14">
+        <v>42724</v>
+      </c>
+      <c r="L46" s="14">
+        <v>42720</v>
+      </c>
+      <c r="M46" s="14">
+        <v>42724</v>
+      </c>
       <c r="N46" s="14"/>
       <c r="O46" s="18"/>
       <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="18">
+        <v>8</v>
+      </c>
       <c r="G47" s="18"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
+      <c r="I47" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="14">
+        <v>42720</v>
+      </c>
+      <c r="K47" s="14">
+        <v>42724</v>
+      </c>
+      <c r="L47" s="14">
+        <v>42720</v>
+      </c>
+      <c r="M47" s="14">
+        <v>42724</v>
+      </c>
       <c r="N47" s="14"/>
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
@@ -3109,16 +3162,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A11:P11"/>
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A10:P10"/>
@@ -3135,6 +3178,16 @@
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
   <si>
     <t>No.</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>Form 19.01, 19.02</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
   </si>
 </sst>
 </file>
@@ -671,15 +674,54 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,15 +746,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -720,39 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,116 +1084,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="50" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="46"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="40" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1437,64 +1440,64 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="30"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="32"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1982,7 +1985,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2032,7 +2035,7 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="29"/>
+      <c r="P23" s="44"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2074,27 +2077,27 @@
       <c r="O24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="29"/>
+      <c r="P24" s="44"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2529,24 +2532,24 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3089,22 +3092,24 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
+      <c r="A48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -3161,7 +3166,18 @@
       <c r="P51" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A11:P11"/>
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A10:P10"/>
@@ -3178,16 +3194,6 @@
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A11:P11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -677,15 +677,60 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,52 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,99 +1084,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="30"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="42" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="31"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="29"/>
@@ -1440,7 +1440,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="29"/>
@@ -1460,44 +1460,44 @@
       <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="56"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="32"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="31"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1985,7 +1985,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="30" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="44"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2077,7 +2077,7 @@
       <c r="O24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="44"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
@@ -2919,13 +2919,13 @@
         <v>42720</v>
       </c>
       <c r="K43" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="L43" s="14">
         <v>42720</v>
       </c>
       <c r="M43" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="N43" s="14"/>
       <c r="O43" s="13"/>
@@ -2959,13 +2959,13 @@
         <v>42720</v>
       </c>
       <c r="K44" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="L44" s="14">
         <v>42720</v>
       </c>
       <c r="M44" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="N44" s="14"/>
       <c r="O44" s="18"/>
@@ -2999,13 +2999,13 @@
         <v>42720</v>
       </c>
       <c r="K45" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="L45" s="14">
         <v>42720</v>
       </c>
       <c r="M45" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="N45" s="14"/>
       <c r="O45" s="18"/>
@@ -3039,13 +3039,13 @@
         <v>42720</v>
       </c>
       <c r="K46" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="L46" s="14">
         <v>42720</v>
       </c>
       <c r="M46" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="N46" s="14"/>
       <c r="O46" s="18"/>
@@ -3079,13 +3079,13 @@
         <v>42720</v>
       </c>
       <c r="K47" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="L47" s="14">
         <v>42720</v>
       </c>
       <c r="M47" s="14">
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="18"/>
@@ -3167,18 +3167,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A48:P48"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A35:P35"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="A10:P10"/>
     <mergeCell ref="B1:B3"/>
@@ -3192,6 +3180,18 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A48:P48"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A35:P35"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
   </mergeCells>

--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
   <si>
     <t>No.</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>Write proposal</t>
   </si>
 </sst>
 </file>
@@ -674,15 +677,51 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,15 +746,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -723,36 +756,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,116 +1087,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="50" t="s">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="46"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="40" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="47"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1443,41 +1446,41 @@
       <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
@@ -1985,7 +1988,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="30" t="s">
+      <c r="P22" s="43" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2035,7 +2038,7 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="30"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2077,27 +2080,27 @@
       <c r="O24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="30"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2532,24 +2535,24 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3092,41 +3095,71 @@
       <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
     </row>
     <row r="49" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="18"/>
+      <c r="A49" s="3">
+        <v>39</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="18">
+        <v>3</v>
+      </c>
+      <c r="G49" s="18">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="14">
+        <v>42725</v>
+      </c>
+      <c r="K49" s="14">
+        <v>42725</v>
+      </c>
+      <c r="L49" s="14">
+        <v>42725</v>
+      </c>
+      <c r="M49" s="14">
+        <v>42725</v>
+      </c>
+      <c r="N49" s="14">
+        <v>42725</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="P49" s="18"/>
     </row>
     <row r="50" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3167,19 +3200,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="A4:P4"/>
@@ -3194,6 +3214,19 @@
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -398,12 +398,120 @@
   <si>
     <t>Write proposal</t>
   </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Teem meeting at LAB</t>
+  </si>
+  <si>
+    <t>16/1/2017</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>FINAL EXAMINATION</t>
+  </si>
+  <si>
+    <t>WEEK 9</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>WEEK 10</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Review and fix all tables</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Thanh, Hoang, Phuong</t>
+  </si>
+  <si>
+    <t>Prepare slide for presentation</t>
+  </si>
+  <si>
+    <t>Code "Them mau vao yeu cau"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review task </t>
+  </si>
+  <si>
+    <t>18/1/2017</t>
+  </si>
+  <si>
+    <t>Code main funtions</t>
+  </si>
+  <si>
+    <t>Create views,models and controllers for table</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Research about ASP .NET MVC</t>
+  </si>
+  <si>
+    <t>Code template for ""</t>
+  </si>
+  <si>
+    <t>19/1/2017</t>
+  </si>
+  <si>
+    <t>WEEK 11,12,13</t>
+  </si>
+  <si>
+    <t>TET HOLIDAY BREAK</t>
+  </si>
+  <si>
+    <t>WEEK 14</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>Fix prototype</t>
+  </si>
+  <si>
+    <t>Fix tables templates</t>
+  </si>
+  <si>
+    <t>Hoang, Duy</t>
+  </si>
+  <si>
+    <t>Fix and complete task "CODE MAIN FUCTIONS"</t>
+  </si>
+  <si>
+    <t>13/2/2017</t>
+  </si>
+  <si>
+    <t>Completed by another member</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +529,14 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -677,18 +793,99 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,52 +910,22 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,116 +1254,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="46" t="s">
+      <c r="K1" s="46"/>
+      <c r="L1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="35" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="29"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="42" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="36"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="30"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1443,64 +1610,64 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="31"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1988,7 +2155,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2038,7 +2205,7 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="43"/>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2080,27 +2247,27 @@
       <c r="O24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="43"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2535,24 +2702,24 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
     </row>
     <row r="36" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -2675,10 +2842,10 @@
         <v>6</v>
       </c>
       <c r="H38" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="J38" s="14">
         <v>42717</v>
@@ -2723,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="H39" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="J39" s="14">
         <v>42718</v>
@@ -2913,10 +3080,14 @@
       <c r="F43" s="13">
         <v>4</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="13" t="s">
-        <v>30</v>
+      <c r="G43" s="30">
+        <v>4</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="J43" s="14">
         <v>42720</v>
@@ -2930,8 +3101,12 @@
       <c r="M43" s="14">
         <v>42725</v>
       </c>
-      <c r="N43" s="14"/>
-      <c r="O43" s="13"/>
+      <c r="N43" s="14">
+        <v>42725</v>
+      </c>
+      <c r="O43" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -2953,10 +3128,14 @@
       <c r="F44" s="18">
         <v>4</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="28" t="s">
-        <v>30</v>
+      <c r="G44" s="30">
+        <v>4</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="J44" s="14">
         <v>42720</v>
@@ -2970,8 +3149,12 @@
       <c r="M44" s="14">
         <v>42725</v>
       </c>
-      <c r="N44" s="14"/>
-      <c r="O44" s="18"/>
+      <c r="N44" s="14">
+        <v>42725</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2993,10 +3176,14 @@
       <c r="F45" s="18">
         <v>4</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="28" t="s">
-        <v>30</v>
+      <c r="G45" s="30">
+        <v>4</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="J45" s="14">
         <v>42720</v>
@@ -3010,109 +3197,131 @@
       <c r="M45" s="14">
         <v>42725</v>
       </c>
-      <c r="N45" s="14"/>
-      <c r="O45" s="18"/>
+      <c r="N45" s="14">
+        <v>42725</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="P45" s="18"/>
     </row>
-    <row r="46" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
         <v>37</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="37">
         <v>8</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="14">
+      <c r="G46" s="37">
+        <v>8</v>
+      </c>
+      <c r="H46" s="72">
+        <v>1</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="73">
         <v>42720</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="73">
         <v>42725</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="73">
         <v>42720</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="73">
         <v>42725</v>
       </c>
-      <c r="N46" s="14"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
+      <c r="N46" s="73">
+        <v>42725</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" s="37" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="47" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="33">
         <v>38</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="31">
         <v>8</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J47" s="14">
+      <c r="G47" s="31">
+        <v>8</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="35">
         <v>42720</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="35">
         <v>42725</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="35">
         <v>42720</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M47" s="35">
         <v>42725</v>
       </c>
-      <c r="N47" s="14"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
+      <c r="N47" s="35">
+        <v>42725</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" s="31"/>
     </row>
     <row r="48" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
     </row>
     <row r="49" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -3162,44 +3371,821 @@
       </c>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-    </row>
-    <row r="51" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
+    <row r="50" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>40</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="30">
+        <v>3</v>
+      </c>
+      <c r="G50" s="30">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="14">
+        <v>42725</v>
+      </c>
+      <c r="K50" s="14">
+        <v>42725</v>
+      </c>
+      <c r="L50" s="14">
+        <v>42725</v>
+      </c>
+      <c r="M50" s="14">
+        <v>42725</v>
+      </c>
+      <c r="N50" s="14">
+        <v>42725</v>
+      </c>
+      <c r="O50" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" s="30"/>
+    </row>
+    <row r="51" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="44"/>
+    </row>
+    <row r="52" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
+      <c r="P53" s="56"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
+      <c r="P55" s="44"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="42"/>
+    </row>
+    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="42"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="30">
+        <v>3</v>
+      </c>
+      <c r="G60" s="30">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O60" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="30">
+        <v>4</v>
+      </c>
+      <c r="G61" s="30">
+        <v>4</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O61" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" s="30"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="39">
+        <v>15</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="35">
+        <v>42948</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" s="39"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="30">
+        <v>6</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="30">
+        <v>2</v>
+      </c>
+      <c r="G64" s="30">
+        <v>2</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O64" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" s="30"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="30">
+        <v>3</v>
+      </c>
+      <c r="G65" s="30">
+        <v>3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O65" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P65" s="30"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="30">
+        <v>5</v>
+      </c>
+      <c r="G66" s="30">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O66" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="P66" s="30"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="38">
+        <v>4</v>
+      </c>
+      <c r="G67" s="38">
+        <v>4</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="38"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="42"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="70"/>
+      <c r="M69" s="70"/>
+      <c r="N69" s="70"/>
+      <c r="O69" s="70"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="42"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="38">
+        <v>4</v>
+      </c>
+      <c r="G71" s="38"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J71" s="14">
+        <v>42980</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="38">
+        <v>6</v>
+      </c>
+      <c r="G72" s="38"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="14">
+        <v>42980</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+    </row>
+    <row r="73" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="38">
+        <v>6</v>
+      </c>
+      <c r="G73" s="38"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="14">
+        <v>42980</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="A4:P4"/>
@@ -3214,19 +4200,6 @@
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plan/PROJECTPLAN.xlsx
+++ b/Plan/PROJECTPLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="168">
   <si>
     <t>No.</t>
   </si>
@@ -547,6 +547,24 @@
   </si>
   <si>
     <t>PENDING</t>
+  </si>
+  <si>
+    <t>EXTENDED to 2/3</t>
+  </si>
+  <si>
+    <t>22/2</t>
+  </si>
+  <si>
+    <t>16/2</t>
+  </si>
+  <si>
+    <t>Draw class diagram and fix various tables UI and Models</t>
+  </si>
+  <si>
+    <t>Redraw prototype and prepare documents</t>
+  </si>
+  <si>
+    <t>Add SoLuong columns to YeuCauLayMau, encode MaDon, MaMau, link table SoNhanMau</t>
   </si>
 </sst>
 </file>
@@ -755,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -847,148 +865,151 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R90"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1328,9 @@
     <col min="2" max="2" width="11.85546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="63.7109375" style="6" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="6"/>
+    <col min="5" max="5" width="20" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12" style="6" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="6"/>
     <col min="9" max="9" width="11.140625" style="6" customWidth="1"/>
     <col min="10" max="13" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -1317,116 +1340,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="70" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="54" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="70" t="s">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="68"/>
+      <c r="Q1" s="56"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="60" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="69"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="75"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1673,64 +1696,64 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="51"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2218,7 +2241,7 @@
       <c r="O22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="50" t="s">
+      <c r="P22" s="68" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2268,7 +2291,7 @@
       <c r="O23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="50"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
@@ -2310,27 +2333,27 @@
       <c r="O24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="50"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -2765,24 +2788,24 @@
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
     </row>
     <row r="36" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
@@ -3269,122 +3292,110 @@
       <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+      <c r="A46" s="32">
         <v>37</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="37" t="s">
+      <c r="D46" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="37" t="s">
+      <c r="E46" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="33">
         <v>8</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="33">
         <v>8</v>
       </c>
-      <c r="H46" s="40">
-        <v>1</v>
-      </c>
-      <c r="I46" s="37" t="s">
+      <c r="H46" s="36">
+        <v>1</v>
+      </c>
+      <c r="I46" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="37">
         <v>42720</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="37">
         <v>42725</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="37">
         <v>42720</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="37">
         <v>42725</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="37">
         <v>42725</v>
       </c>
-      <c r="O46" s="37" t="s">
+      <c r="O46" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="P46" s="37" t="s">
+      <c r="P46" s="33" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="A47" s="77">
         <v>38</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="31">
+      <c r="F47" s="44">
         <v>8</v>
       </c>
-      <c r="G47" s="31">
-        <v>8</v>
-      </c>
-      <c r="H47" s="34">
-        <v>1</v>
-      </c>
-      <c r="I47" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="35">
+      <c r="G47" s="44"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="79">
         <v>42720</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K47" s="79">
         <v>42725</v>
       </c>
-      <c r="L47" s="35">
-        <v>42720</v>
-      </c>
-      <c r="M47" s="35">
-        <v>42725</v>
-      </c>
-      <c r="N47" s="35">
-        <v>42725</v>
-      </c>
-      <c r="O47" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" s="31"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="48" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
     </row>
     <row r="49" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -3483,124 +3494,124 @@
       <c r="P50" s="30"/>
     </row>
     <row r="51" spans="1:16" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="53"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="50"/>
+      <c r="P51" s="51"/>
     </row>
     <row r="52" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="49"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="63" t="s">
+      <c r="A53" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="65"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="55"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="49" t="s">
+      <c r="A54" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="49"/>
-      <c r="P54" s="49"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="53"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="50"/>
+      <c r="P55" s="51"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="76" t="s">
+      <c r="A56" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="51"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="47"/>
     </row>
     <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -3622,66 +3633,66 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="32"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="76" t="s">
+      <c r="A59" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="51"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="47"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="42">
         <v>3</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="42">
         <v>3</v>
       </c>
       <c r="H60" s="2">
         <v>1</v>
       </c>
-      <c r="I60" s="30" t="s">
+      <c r="I60" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J60" s="14" t="s">
@@ -3699,37 +3710,37 @@
       <c r="N60" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="O60" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P60" s="30" t="s">
+      <c r="O60" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P60" s="42" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="42">
         <v>4</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="42">
         <v>4</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I61" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J61" s="14" t="s">
@@ -3747,74 +3758,74 @@
       <c r="N61" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="O61" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P61" s="30"/>
+      <c r="O61" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" s="42"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="44" t="s">
+      <c r="D62" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="E62" s="44" t="s">
+      <c r="E62" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="39">
         <v>8</v>
       </c>
-      <c r="G62" s="44">
+      <c r="G62" s="39">
         <v>8</v>
       </c>
-      <c r="H62" s="45">
-        <v>1</v>
-      </c>
-      <c r="I62" s="44" t="s">
+      <c r="H62" s="40">
+        <v>1</v>
+      </c>
+      <c r="I62" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J62" s="41">
         <v>42948</v>
       </c>
-      <c r="K62" s="46" t="s">
+      <c r="K62" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="44" t="s">
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="P62" s="44" t="s">
+      <c r="P62" s="39" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="42">
         <v>6</v>
       </c>
-      <c r="G63" s="39">
+      <c r="G63" s="42">
         <v>6</v>
       </c>
-      <c r="H63" s="45">
+      <c r="H63" s="40">
         <v>1</v>
       </c>
       <c r="I63" s="42" t="s">
@@ -3835,35 +3846,35 @@
       <c r="N63" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="O63" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P63" s="30"/>
+      <c r="O63" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="30" t="s">
+      <c r="E64" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="42">
         <v>2</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="42">
         <v>2</v>
       </c>
       <c r="H64" s="2">
         <v>1</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I64" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J64" s="14" t="s">
@@ -3881,35 +3892,35 @@
       <c r="N64" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="O64" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P64" s="30"/>
+      <c r="O64" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="42">
         <v>3</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="42">
         <v>3</v>
       </c>
       <c r="H65" s="2">
         <v>1</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I65" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J65" s="14" t="s">
@@ -3927,35 +3938,35 @@
       <c r="N65" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="O65" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P65" s="30"/>
+      <c r="O65" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P65" s="42"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="30">
+      <c r="F66" s="42">
         <v>5</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G66" s="42">
         <v>5</v>
       </c>
       <c r="H66" s="2">
         <v>1</v>
       </c>
-      <c r="I66" s="30" t="s">
+      <c r="I66" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J66" s="14" t="s">
@@ -3973,35 +3984,35 @@
       <c r="N66" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="O66" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P66" s="30"/>
+      <c r="O66" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P66" s="42"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="38">
+      <c r="F67" s="42">
         <v>4</v>
       </c>
-      <c r="G67" s="38">
+      <c r="G67" s="42">
         <v>4</v>
       </c>
       <c r="H67" s="2">
         <v>1</v>
       </c>
-      <c r="I67" s="38" t="s">
+      <c r="I67" s="42" t="s">
         <v>24</v>
       </c>
       <c r="J67" s="14" t="s">
@@ -4019,88 +4030,88 @@
       <c r="N67" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="O67" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="P67" s="38"/>
+      <c r="O67" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P67" s="42"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="76" t="s">
+      <c r="A68" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="51"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="47"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="34"/>
+      <c r="R69" s="34"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="76" t="s">
+      <c r="A70" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="51"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="47"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71" s="42">
         <v>8</v>
       </c>
       <c r="G71" s="42">
@@ -4130,23 +4141,23 @@
       <c r="O71" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P71" s="38"/>
+      <c r="P71" s="42"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="38" t="s">
+      <c r="B72" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72" s="42">
         <v>12</v>
       </c>
       <c r="G72" s="42">
@@ -4176,23 +4187,23 @@
       <c r="O72" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P72" s="38"/>
+      <c r="P72" s="42"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="B73" s="38" t="s">
+      <c r="B73" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="38" t="s">
+      <c r="E73" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="38">
+      <c r="F73" s="42">
         <v>12</v>
       </c>
       <c r="G73" s="42">
@@ -4222,23 +4233,23 @@
       <c r="O73" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P73" s="38"/>
+      <c r="P73" s="42"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="38" t="s">
+      <c r="B74" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="38" t="s">
+      <c r="C74" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="38" t="s">
+      <c r="D74" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="42">
         <v>12</v>
       </c>
       <c r="G74" s="42">
@@ -4268,23 +4279,23 @@
       <c r="O74" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P74" s="38"/>
+      <c r="P74" s="42"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="42">
         <v>4</v>
       </c>
       <c r="G75" s="42">
@@ -4314,362 +4325,510 @@
       <c r="O75" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P75" s="38"/>
+      <c r="P75" s="42"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="s">
+      <c r="A76" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-      <c r="P76" s="51"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="47"/>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="42" t="s">
         <v>156</v>
       </c>
       <c r="D77" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="F77" s="39">
+      <c r="F77" s="42">
         <v>6</v>
       </c>
-      <c r="G77" s="39"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="39"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="39"/>
+      <c r="G77" s="42">
+        <v>6</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O77" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="P77" s="3"/>
     </row>
     <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="39" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" s="39">
+      <c r="E78" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" s="43">
         <v>4</v>
       </c>
-      <c r="G78" s="39"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="3"/>
+      <c r="G78" s="43">
+        <v>4</v>
+      </c>
+      <c r="H78" s="22">
+        <v>1</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K78" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L78" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M78" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="N78" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O78" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P78" s="24"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39" t="s">
+      <c r="A79" s="77"/>
+      <c r="B79" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F79" s="39">
-        <v>8</v>
-      </c>
-      <c r="G79" s="39"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="39"/>
-      <c r="P79" s="3"/>
+      <c r="F79" s="44">
+        <v>9</v>
+      </c>
+      <c r="G79" s="44"/>
+      <c r="H79" s="78"/>
+      <c r="I79" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="J79" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P79" s="77" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="44" t="s">
+      <c r="B80" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="39">
+      <c r="F80" s="42">
         <v>3</v>
       </c>
-      <c r="G80" s="39"/>
+      <c r="G80" s="42"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="39"/>
+      <c r="I80" s="42"/>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
-      <c r="O80" s="39"/>
+      <c r="O80" s="42"/>
       <c r="P80" s="3"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="44" t="s">
+      <c r="B81" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="39">
-        <v>12</v>
-      </c>
-      <c r="G81" s="39"/>
+      <c r="F81" s="42">
+        <v>4</v>
+      </c>
+      <c r="G81" s="42"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="39"/>
+      <c r="I81" s="42"/>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
-      <c r="O81" s="39"/>
+      <c r="O81" s="42"/>
       <c r="P81" s="3"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="39"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="39"/>
+      <c r="B82" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="42">
+        <v>5</v>
+      </c>
+      <c r="G82" s="42">
+        <v>5</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+      <c r="I82" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O82" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="P82" s="3"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="39"/>
+      <c r="B83" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="35">
+        <v>5</v>
+      </c>
+      <c r="G83" s="35">
+        <v>5</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O83" s="35" t="s">
+        <v>42</v>
+      </c>
       <c r="P83" s="3"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="39"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="39"/>
+      <c r="B84" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="35">
+        <v>8</v>
+      </c>
+      <c r="G84" s="35">
+        <v>8</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
+      </c>
+      <c r="I84" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="M84" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O84" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="P84" s="3"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E85" s="39"/>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="39"/>
+      <c r="I85" s="35"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
       <c r="N85" s="14"/>
-      <c r="O85" s="39"/>
+      <c r="O85" s="35"/>
       <c r="P85" s="3"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="39"/>
+      <c r="I86" s="35"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
       <c r="N86" s="14"/>
-      <c r="O86" s="39"/>
+      <c r="O86" s="35"/>
       <c r="P86" s="3"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="39"/>
+      <c r="I87" s="35"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
-      <c r="O87" s="39"/>
+      <c r="O87" s="35"/>
       <c r="P87" s="3"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="39"/>
+      <c r="I88" s="35"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
-      <c r="O88" s="39"/>
+      <c r="O88" s="35"/>
       <c r="P88" s="3"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="39"/>
+      <c r="I89" s="35"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
-      <c r="O89" s="39"/>
+      <c r="O89" s="35"/>
       <c r="P89" s="3"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="39"/>
+      <c r="I90" s="35"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
       <c r="N90" s="14"/>
-      <c r="O90" s="39"/>
+      <c r="O90" s="35"/>
       <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A76:P76"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="A69:P69"/>
-    <mergeCell ref="A70:P70"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A55:P55"/>
-    <mergeCell ref="A59:P59"/>
-    <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A54:P54"/>
-    <mergeCell ref="A53:P53"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A10:P10"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I1:I3"/>
     <mergeCell ref="A48:P48"/>
     <mergeCell ref="P22:P24"/>
     <mergeCell ref="A4:P4"/>
@@ -4684,6 +4843,30 @@
     <mergeCell ref="A35:P35"/>
     <mergeCell ref="A25:P25"/>
     <mergeCell ref="A12:P12"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A10:P10"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A55:P55"/>
+    <mergeCell ref="A59:P59"/>
+    <mergeCell ref="A51:P51"/>
+    <mergeCell ref="A52:P52"/>
+    <mergeCell ref="A54:P54"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A76:P76"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="A69:P69"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A56:P56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
